--- a/texas_info.xlsx
+++ b/texas_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasha/Documents/Fall2018/Science_Of_Elections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAA610-9CC3-0340-8BE7-1889AD638D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF4C4C-D1BE-C84F-A23F-FD09DFFEFF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="30200" windowHeight="12360" xr2:uid="{FD76A34B-C9C8-AE4F-BF61-D7F5C06675A1}"/>
+    <workbookView xWindow="14840" yWindow="1320" windowWidth="13940" windowHeight="12360" xr2:uid="{FD76A34B-C9C8-AE4F-BF61-D7F5C06675A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Election Year</t>
   </si>
@@ -51,22 +51,10 @@
     <t>senate_dem_vote_share</t>
   </si>
   <si>
-    <t>President -&gt; goveronor -&gt; senator</t>
-  </si>
-  <si>
-    <t>https://ballotpedia.org/Texas_gubernatorial_election,_2018#State_election_history</t>
-  </si>
-  <si>
-    <t>https://data.bls.gov/pdq/SurveyOutputServlet</t>
-  </si>
-  <si>
     <t>unemployment</t>
   </si>
   <si>
     <t>turnout</t>
-  </si>
-  <si>
-    <t>https://www.sos.state.tx.us/elections/historical/70-92.shtml</t>
   </si>
   <si>
     <t>hispanic or latino origin:</t>
@@ -80,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#0.0"/>
+    <numFmt numFmtId="164" formatCode="#0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +108,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +426,19 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -469,19 +458,19 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -498,16 +487,19 @@
         <v>0.4234</v>
       </c>
       <c r="F2">
+        <v>0.4234</v>
+      </c>
+      <c r="G2">
         <v>0.48299999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.4234</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -532,6 +524,9 @@
       <c r="I3" s="1">
         <v>4.5999999999999996</v>
       </c>
+      <c r="J3">
+        <v>0.46450000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -547,16 +542,19 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="F4">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G4">
         <v>0.34360000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.38900000000000001</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.24990000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -575,7 +573,7 @@
       <c r="E5">
         <v>0.4138</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.40620000000000001</v>
       </c>
       <c r="H5">
@@ -583,6 +581,9 @@
       </c>
       <c r="I5" s="1">
         <v>6.7</v>
+      </c>
+      <c r="J5">
+        <v>0.43730000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -598,7 +599,7 @@
       <c r="D6">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>0.42299999999999999</v>
       </c>
       <c r="H6">
@@ -606,6 +607,9 @@
       </c>
       <c r="I6" s="1">
         <v>8.1</v>
+      </c>
+      <c r="J6">
+        <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,7 +628,7 @@
       <c r="E7">
         <v>0.43659999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4284</v>
       </c>
       <c r="H7">
@@ -632,6 +636,9 @@
       </c>
       <c r="I7" s="1">
         <v>4.8</v>
+      </c>
+      <c r="J7">
+        <v>0.45550000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -644,17 +651,23 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0.2979</v>
+      </c>
       <c r="F8">
+        <v>0.2979</v>
+      </c>
+      <c r="G8">
         <v>0.36049999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.2979</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>4.9000000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.26440000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -679,6 +692,9 @@
       <c r="I9" s="1">
         <v>5.9</v>
       </c>
+      <c r="J9">
+        <v>0.46110000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -694,16 +710,19 @@
         <v>0.39960000000000001</v>
       </c>
       <c r="F10">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="G10">
         <v>0.43330000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.39960000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>6.4</v>
+      </c>
+      <c r="J10">
+        <v>0.29349999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -722,7 +741,7 @@
       <c r="E11">
         <v>0.37980000000000003</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.32350000000000001</v>
       </c>
       <c r="H11">
@@ -730,6 +749,9 @@
       </c>
       <c r="I11" s="1">
         <v>4.3</v>
+      </c>
+      <c r="J11">
+        <v>0.4425</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -742,11 +764,20 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>0.312</v>
+      </c>
+      <c r="F12">
+        <v>0.312</v>
+      </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>4.9000000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.26529999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -759,11 +790,20 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.43830000000000002</v>
+      </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>5.7</v>
+      </c>
+      <c r="J13">
+        <v>0.53239999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -776,11 +816,23 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>6.5</v>
+      </c>
+      <c r="J14">
+        <v>0.3362</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -793,6 +845,12 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.37080000000000002</v>
+      </c>
       <c r="H15">
         <v>1</v>
       </c>
@@ -803,32 +861,12 @@
         <v>0.47639999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/texas_info.xlsx
+++ b/texas_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasha/Documents/Fall2018/Science_Of_Elections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF4C4C-D1BE-C84F-A23F-FD09DFFEFF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DDF98-9A11-F64A-9F2B-E07892757B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="1320" windowWidth="13940" windowHeight="12360" xr2:uid="{FD76A34B-C9C8-AE4F-BF61-D7F5C06675A1}"/>
+    <workbookView xWindow="3900" yWindow="1100" windowWidth="24820" windowHeight="15600" xr2:uid="{FD76A34B-C9C8-AE4F-BF61-D7F5C06675A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Election Year</t>
-  </si>
-  <si>
-    <t>Pres</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Top-of-ticket-dem-vote-share</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>current_presidents_dem</t>
   </si>
   <si>
-    <t>Presidential-dem-vote-share</t>
-  </si>
-  <si>
-    <t>gubernatorial_dem_vote_share</t>
-  </si>
-  <si>
-    <t>senate_dem_vote_share</t>
-  </si>
-  <si>
     <t>unemployment</t>
   </si>
   <si>
     <t>turnout</t>
   </si>
   <si>
-    <t>hispanic or latino origin:</t>
-  </si>
-  <si>
-    <t>https://factfinder.census.gov/faces/tableservices/jsf/pages/productview.xhtml?pid=ACS_17_1YR_B03003&amp;prodType=table</t>
+    <t>vote_share</t>
+  </si>
+  <si>
+    <t>election_year</t>
+  </si>
+  <si>
+    <t>pres_elec_year</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>governor</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>candidate_name</t>
+  </si>
+  <si>
+    <t>Beto O'Rourke</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Barack Obma</t>
+  </si>
+  <si>
+    <t>John Kerry</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Lupe Valdez</t>
+  </si>
+  <si>
+    <t>Wendy Davis</t>
+  </si>
+  <si>
+    <t>Bill White</t>
+  </si>
+  <si>
+    <t>Chris Bell</t>
+  </si>
+  <si>
+    <t>Tony Sanchez</t>
+  </si>
+  <si>
+    <t>Gary Mauro</t>
+  </si>
+  <si>
+    <t>Ann Richards</t>
+  </si>
+  <si>
+    <t>Paul Sadler</t>
+  </si>
+  <si>
+    <t>Barbara Ann Radnofsky</t>
+  </si>
+  <si>
+    <t>Gene Kelly</t>
+  </si>
+  <si>
+    <t>Richard W Fisher</t>
+  </si>
+  <si>
+    <t>candidate_white</t>
+  </si>
+  <si>
+    <t>candidate_hispanic</t>
+  </si>
+  <si>
+    <t>candidate_male</t>
   </si>
 </sst>
 </file>
@@ -70,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +138,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,14 +168,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,74 +491,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5489A5-EAD2-9F49-9519-915679F4281F}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.4234</v>
       </c>
       <c r="D2">
-        <v>0.4234</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.4234</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.48299999999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -501,375 +586,756 @@
       <c r="J2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.53</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>0.43240000000000001</v>
       </c>
-      <c r="E3">
-        <v>0.43240000000000001</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>0.46450000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.34360000000000002</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>0.24990000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2012</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>0.4138</v>
       </c>
-      <c r="E5">
-        <v>0.4138</v>
-      </c>
-      <c r="G5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J6">
+        <v>0.43730000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>6.7</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>0.43730000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>0.42299999999999999</v>
       </c>
-      <c r="F6">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>8.1</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2008</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>0.43659999999999999</v>
       </c>
-      <c r="E7">
-        <v>0.43659999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.4284</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>4.8</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>0.45550000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>0.2979</v>
       </c>
-      <c r="F8">
-        <v>0.2979</v>
-      </c>
-      <c r="G8">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
         <v>0.36049999999999999</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J8">
+      <c r="J11">
         <v>0.26440000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2004</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>0.38219999999999998</v>
       </c>
-      <c r="E9">
-        <v>0.38219999999999998</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>5.9</v>
       </c>
-      <c r="J9">
+      <c r="J12">
         <v>0.46110000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2002</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>0.39960000000000001</v>
       </c>
-      <c r="F10">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>6.4</v>
       </c>
-      <c r="J10">
+      <c r="J13">
         <v>0.29349999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2000</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>0.37980000000000003</v>
       </c>
-      <c r="E11">
-        <v>0.37980000000000003</v>
-      </c>
-      <c r="G11">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>4.3</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>0.4425</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J15">
+        <v>0.4425</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1998</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
         <v>0.312</v>
       </c>
-      <c r="F12">
-        <v>0.312</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J12">
+      <c r="J16">
         <v>0.26529999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1996</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>0.43830000000000002</v>
       </c>
-      <c r="E13">
-        <v>0.43830000000000002</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>5.7</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>0.53239999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1994</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
         <v>0.45900000000000002</v>
       </c>
-      <c r="F14">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="G14">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J18">
+        <v>0.3362</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1994</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
         <v>6.5</v>
       </c>
-      <c r="J14">
+      <c r="J19">
         <v>0.3362</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1992</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
         <v>0.37080000000000002</v>
       </c>
-      <c r="E15">
-        <v>0.37080000000000002</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>7.6</v>
       </c>
-      <c r="J15">
+      <c r="J20">
         <v>0.47639999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/texas_info.xlsx
+++ b/texas_info.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasha/Documents/Fall2018/Science_Of_Elections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saptarshighose/Downloads/Texas-Blue-master 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DDF98-9A11-F64A-9F2B-E07892757B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1100" windowWidth="24820" windowHeight="15600" xr2:uid="{FD76A34B-C9C8-AE4F-BF61-D7F5C06675A1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>current_presidents_dem</t>
   </si>
@@ -66,9 +71,6 @@
     <t>Barack Obama</t>
   </si>
   <si>
-    <t>Barack Obma</t>
-  </si>
-  <si>
     <t>John Kerry</t>
   </si>
   <si>
@@ -118,12 +120,21 @@
   </si>
   <si>
     <t>candidate_male</t>
+  </si>
+  <si>
+    <t>abortion_pro_choice</t>
+  </si>
+  <si>
+    <t>pro_guns</t>
+  </si>
+  <si>
+    <t>pro_death_penalty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0.0"/>
   </numFmts>
@@ -490,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5489A5-EAD2-9F49-9519-915679F4281F}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,9 +523,11 @@
     <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -546,21 +559,30 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0.4234</v>
@@ -595,8 +617,17 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -636,8 +667,17 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -677,13 +717,22 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2014</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0.38900000000000001</v>
@@ -718,8 +767,17 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -759,13 +817,22 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2012</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.40620000000000001</v>
@@ -800,13 +867,19 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0.42299999999999999</v>
@@ -842,12 +915,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.43659999999999999</v>
@@ -882,13 +955,22 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0.2979</v>
@@ -923,13 +1005,16 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0.36049999999999999</v>
@@ -964,13 +1049,16 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0.38219999999999998</v>
@@ -1005,13 +1093,22 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0.39960000000000001</v>
@@ -1046,13 +1143,22 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2000</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.37980000000000003</v>
@@ -1087,13 +1193,19 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2000</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0.32400000000000001</v>
@@ -1129,12 +1241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1998</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0.312</v>
@@ -1169,13 +1281,16 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1996</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0.43830000000000002</v>
@@ -1210,13 +1325,22 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1994</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>0.45900000000000002</v>
@@ -1251,13 +1375,19 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>0.38500000000000001</v>
@@ -1293,12 +1423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1992</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>0.37080000000000002</v>
@@ -1331,6 +1461,56 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1990</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0.495</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
     </row>
